--- a/data_processed/20250822/BTCUSDVOLSURFACE_REGULARIZED_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDVOLSURFACE_REGULARIZED_20250822.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6263,7 +6263,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13018,7 +13018,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18710,7 +18710,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18739,7 +18739,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18768,7 +18768,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -29024,7 +29024,7 @@
       </c>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -34589,7 +34589,7 @@
       </c>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34697,7 +34697,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34751,7 +34751,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -35159,7 +35159,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35242,7 +35242,7 @@
       </c>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35300,7 +35300,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35445,7 +35445,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36414,7 +36414,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -36580,7 +36580,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -36638,7 +36638,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37183,7 +37183,7 @@
       </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37241,7 +37241,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37299,7 +37299,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37357,7 +37357,7 @@
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -37498,7 +37498,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37556,7 +37556,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -38280,7 +38280,7 @@
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38309,7 +38309,7 @@
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38392,7 +38392,7 @@
       </c>
       <c r="G1479" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38421,7 +38421,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39124,7 +39124,7 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39211,7 +39211,7 @@
       </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39240,7 +39240,7 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39298,7 +39298,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40146,7 +40146,7 @@
       </c>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -40204,7 +40204,7 @@
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -40233,7 +40233,7 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41347,7 +41347,7 @@
       </c>
       <c r="G1590" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42109,7 +42109,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250822/BTCUSDVOLSURFACE_REGULARIZED_20250822.xlsx
+++ b/data_processed/20250822/BTCUSDVOLSURFACE_REGULARIZED_20250822.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -872,7 +872,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34697,7 +34697,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -34751,7 +34751,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
@@ -37556,7 +37556,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>CA,BF,CS</t>
+          <t>CS,CA,BF</t>
         </is>
       </c>
     </row>
